--- a/KNUH/감염병 CDM ETL정의서_경북대.xlsx
+++ b/KNUH/감염병 CDM ETL정의서_경북대.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\KNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B753481-3904-49ED-BDEE-5EEED0B6C06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70221975-3153-4A12-A107-E45960FA9D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="0" windowWidth="21210" windowHeight="21000" tabRatio="855" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="707">
   <si>
     <t>필드명</t>
   </si>
@@ -1625,20 +1625,6 @@
     <t>외래의경우 'O'로 입력
 입원의 경우 'I' 로 입력
 응급의 경우 'E'로 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 검사일
-2. 판독일
-3. 처방일
- - 검사일이 없는 경우가 있어 사용하는 컬럼의 우선순위 부여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 검사일
-2. 판독일
-3. 처방일
- - 해당하는 시간이 없다면 null 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2352,13 +2338,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DW_MMCUHORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDNAME</t>
-  </si>
-  <si>
     <t>나이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2704,6 +2683,145 @@
   <si>
     <t>MMOHIPRC_지시처방
 MMOHIPRC_수혈처방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar (12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료받은 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcyn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/C처방유무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUGCD</t>
+  </si>
+  <si>
+    <t>measurement_date_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurement_date의 원천 컬럼 출처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판독일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 판독일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과보고일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure_date_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure_date가 어떤 값을 쓰는지 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure_date가 어떤 값을 사용하는지 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECDD + EXECTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFDATE + CONFTIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검사일
+2. 처방일
+ - 검사일이 없는 경우가 있어 사용하는 컬럼의 우선순위 부여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검사일
+2. 처방일
+ - 해당하는 시간이 없다면 null 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+READDD + READTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLRHSPDO
+LPJMACPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPCACPTDT(검체접수일시)
+SPCACPTDD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASTREPTDT
+RSLTREGDD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LPRMRSLT
+LPJMACPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMODEXIP
+LPJMACPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECDD + EXECTM
+ACPTDD + ACPTTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSLTRGSTDD(결과등록일자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECDT(기록일시)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2711,7 +2829,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2874,6 +2992,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="KoPubWorld돋움체_Pro Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2907,7 +3032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3000,6 +3125,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3008,7 +3144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3237,6 +3373,18 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3249,79 +3397,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3661,7 +3815,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>113</v>
@@ -3816,10 +3970,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3830,7 +3984,7 @@
     <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
@@ -3850,10 +4004,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -3876,26 +4030,26 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="90" t="s">
         <v>314</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>444</v>
+        <v>455</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -3903,12 +4057,12 @@
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
       <c r="D4" s="94"/>
-      <c r="E4" s="96"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>444</v>
+        <v>496</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -3916,249 +4070,249 @@
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
-      <c r="E5" s="96"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>444</v>
+        <v>503</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="97"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>444</v>
+        <v>643</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>536</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E7" s="74" t="s">
-        <v>538</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>539</v>
-      </c>
       <c r="G7" s="33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="96" t="s">
         <v>382</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="114" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="G8" s="105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="94"/>
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="94"/>
-      <c r="E9" s="93"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="94"/>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="94"/>
-      <c r="E10" s="93"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="94"/>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
-      <c r="E11" s="93"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>649</v>
+        <v>643</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>416</v>
+      <c r="E12" s="96" t="s">
+        <v>696</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="G12" s="105" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="94"/>
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="94"/>
-      <c r="E13" s="93"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="94"/>
       <c r="B14" s="94"/>
       <c r="C14" s="94"/>
       <c r="D14" s="94"/>
-      <c r="E14" s="93"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="94"/>
       <c r="B15" s="94"/>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
-      <c r="E15" s="93"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>650</v>
+        <v>643</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="92" t="s">
-        <v>416</v>
+      <c r="E16" s="96" t="s">
+        <v>696</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="94"/>
       <c r="B17" s="94"/>
       <c r="C17" s="94"/>
       <c r="D17" s="94"/>
-      <c r="E17" s="93"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="94"/>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
-      <c r="E18" s="93"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="G18" s="105" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="94"/>
       <c r="B19" s="94"/>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
-      <c r="E19" s="93"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>650</v>
+        <v>643</v>
+      </c>
+      <c r="G19" s="105" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="E20" s="92" t="s">
-        <v>417</v>
+      <c r="E20" s="96" t="s">
+        <v>697</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -4166,361 +4320,353 @@
       <c r="B21" s="94"/>
       <c r="C21" s="94"/>
       <c r="D21" s="94"/>
-      <c r="E21" s="93"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="G21" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="100"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="G22" s="105" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="106" t="s">
+        <v>681</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106" t="s">
+        <v>682</v>
+      </c>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B24" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="E27" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="F27" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
+      <c r="G27" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="99" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G29" s="105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="30" t="s">
+      <c r="B31" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="17" customFormat="1" ht="405" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>620</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="D32" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="17" customFormat="1" ht="114" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>625</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="17" customFormat="1" ht="405" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>626</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32" t="s">
-        <v>628</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>628</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>468</v>
+      <c r="G33" s="36" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>176</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F35" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="90" t="s">
+    </row>
+    <row r="36" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B36" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C36" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D36" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E36" s="99" t="s">
         <v>377</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="21" t="s">
-        <v>498</v>
+      <c r="F36" s="24" t="s">
+        <v>455</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="24" t="s">
-        <v>457</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="21" t="s">
+        <v>496</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>629</v>
-      </c>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B39" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>559</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>106</v>
@@ -4529,445 +4675,573 @@
         <v>114</v>
       </c>
       <c r="D40" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E41" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="88" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="88" t="s">
+      <c r="B42" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88" t="s">
+      <c r="C42" s="93"/>
+      <c r="D42" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E42" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="114" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="96"/>
       <c r="F42" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="G42" s="105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A43" s="94"/>
       <c r="B43" s="94"/>
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
-      <c r="E43" s="96"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="97"/>
+        <v>496</v>
+      </c>
+      <c r="G43" s="105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="94"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>648</v>
+        <v>504</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="G45" s="105" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>503</v>
+      <c r="A46" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E49" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="F49" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="10" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="36" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="71"/>
       <c r="E52" s="33"/>
       <c r="F52" s="34"/>
-      <c r="G52" s="36"/>
+      <c r="G52" s="36" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C53" s="36"/>
-      <c r="D53" s="71" t="s">
-        <v>567</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>578</v>
-      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="36"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="73" t="s">
-        <v>569</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>566</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>548</v>
+        <v>574</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="73" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E55" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" s="78" t="s">
         <v>546</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>635</v>
+        <v>544</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="73" t="s">
-        <v>637</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>510</v>
+        <v>568</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>286</v>
+        <v>632</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="73" t="s">
-        <v>607</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>652</v>
+        <v>633</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>631</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>651</v>
+        <v>455</v>
+      </c>
+      <c r="G57" s="78" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="G60" s="79" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="G61" s="79" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>686</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="73" t="s">
+        <v>603</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="73" t="s">
+        <v>635</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="73" t="s">
+        <v>637</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="G65" s="78" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="73" t="s">
         <v>638</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="73" t="s">
+      <c r="E66" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="36"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="E58" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>654</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
+      <c r="B67" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="B59" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="73" t="s">
+      <c r="C67" s="38"/>
+      <c r="D67" s="73" t="s">
         <v>641</v>
       </c>
-      <c r="E59" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>654</v>
-      </c>
-      <c r="G59" s="38" t="s">
+      <c r="E67" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="78" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="73" t="s">
-        <v>642</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="36"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="73" t="s">
-        <v>645</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="38" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4977,10 +5251,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4995,7 +5269,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -5010,11 +5284,11 @@
       <c r="E1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="102" t="s">
-        <v>472</v>
-      </c>
-      <c r="G1" s="102" t="s">
-        <v>473</v>
+      <c r="F1" s="77" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -5053,31 +5327,31 @@
         <v>314</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>538</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
@@ -5097,10 +5371,10 @@
         <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
@@ -5118,10 +5392,10 @@
         <v>391</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
@@ -5139,53 +5413,49 @@
         <v>392</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>655</v>
-      </c>
-      <c r="B9" s="32"/>
+        <v>691</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>108</v>
+      </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>585</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>656</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>106</v>
@@ -5194,34 +5464,36 @@
         <v>114</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>393</v>
+        <v>281</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>106</v>
@@ -5230,40 +5502,34 @@
         <v>114</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>463</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>106</v>
@@ -5272,374 +5538,513 @@
         <v>114</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="F16" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>658</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="F18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="F20" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34" t="s">
-        <v>675</v>
-      </c>
-      <c r="G22" s="36" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>576</v>
-      </c>
       <c r="G24" s="36" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>544</v>
+        <v>630</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103" t="s">
-        <v>569</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>544</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="34" t="s">
-        <v>675</v>
-      </c>
-      <c r="G25" s="103" t="s">
-        <v>549</v>
+        <v>674</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103" t="s">
-        <v>570</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="F26" s="103" t="s">
-        <v>526</v>
-      </c>
-      <c r="G26" s="103" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103" t="s">
-        <v>593</v>
+        <v>543</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78" t="s">
+        <v>567</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>635</v>
+        <v>544</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>636</v>
-      </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103" t="s">
-        <v>635</v>
-      </c>
-      <c r="E28" s="103" t="s">
-        <v>635</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>675</v>
-      </c>
-      <c r="G28" s="103" t="s">
-        <v>670</v>
+        <v>543</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78" t="s">
+        <v>568</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>636</v>
-      </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="32" t="s">
-        <v>660</v>
+        <v>108</v>
+      </c>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78" t="s">
+        <v>589</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="F29" s="34"/>
-      <c r="G29" s="103"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103" t="s">
-        <v>607</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>606</v>
+        <v>632</v>
+      </c>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78" t="s">
+        <v>631</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>631</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>675</v>
-      </c>
-      <c r="G30" s="103" t="s">
-        <v>669</v>
+        <v>671</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="C31" s="103"/>
+        <v>632</v>
+      </c>
+      <c r="C31" s="78"/>
       <c r="D31" s="32" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="G31" s="104" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="78"/>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="G32" s="104" t="s">
-        <v>668</v>
+        <v>687</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="G32" s="78" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="G35" s="78" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>686</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78" t="s">
+        <v>603</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="G37" s="78" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="G38" s="79" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39" s="79" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="32" t="s">
-        <v>663</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>662</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="103"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5684,10 +6089,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5724,10 +6129,10 @@
         <v>320</v>
       </c>
       <c r="F3" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>478</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -5766,7 +6171,7 @@
         <v>412</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>3</v>
@@ -5787,10 +6192,10 @@
         <v>322</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -5808,10 +6213,10 @@
         <v>323</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -5856,10 +6261,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5896,10 +6301,10 @@
         <v>324</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5957,23 +6362,23 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>399</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -5993,31 +6398,31 @@
         <v>326</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -6035,10 +6440,10 @@
         <v>327</v>
       </c>
       <c r="F10" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -6075,10 +6480,10 @@
         <v>329</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -6096,25 +6501,25 @@
         <v>330</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
@@ -6153,10 +6558,10 @@
         <v>327</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6221,10 +6626,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6244,10 +6649,10 @@
         <v>397</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6267,10 +6672,10 @@
         <v>306</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6288,10 +6693,10 @@
         <v>307</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6309,10 +6714,10 @@
         <v>308</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6330,10 +6735,10 @@
         <v>309</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6351,29 +6756,29 @@
         <v>161</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>294</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6391,10 +6796,10 @@
         <v>305</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
@@ -6433,10 +6838,10 @@
         <v>413</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6492,31 +6897,31 @@
         <v>312</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6534,10 +6939,10 @@
         <v>313</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6574,10 +6979,10 @@
         <v>310</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6637,36 +7042,36 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>534</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6866,15 +7271,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>106</v>
@@ -6892,232 +7297,232 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="88" t="s">
         <v>314</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="G5" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="82" t="s">
         <v>339</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="79"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80" t="s">
         <v>178</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>340</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="85"/>
       <c r="F9" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="76" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -7141,158 +7546,158 @@
     </row>
     <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="82" t="s">
         <v>345</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="79"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="82" t="s">
         <v>346</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G20" s="84" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G21" s="85"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G22" s="84" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G21" s="85"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>495</v>
-      </c>
-    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="79"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G23" s="85"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="82" t="s">
         <v>347</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G24" s="84" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="79"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G25" s="85"/>
     </row>
@@ -7330,10 +7735,10 @@
         <v>402</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
@@ -7370,10 +7775,10 @@
         <v>403</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7391,67 +7796,104 @@
         <v>348</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="1"/>
       <c r="E31" s="19"/>
       <c r="F31" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
@@ -7468,43 +7910,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7548,18 +7953,18 @@
         <v>91</v>
       </c>
       <c r="F1" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" t="s">
         <v>472</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="I1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>106</v>
@@ -7576,7 +7981,7 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="I2" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -7600,23 +8005,23 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>538</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -7640,7 +8045,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>131</v>
@@ -7657,7 +8062,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>107</v>
@@ -7691,7 +8096,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>107</v>
@@ -7727,23 +8132,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="33" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>404</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7822,7 +8227,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>106</v>
@@ -7841,7 +8246,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>108</v>
@@ -7858,7 +8263,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>108</v>
@@ -7913,7 +8318,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>106</v>
@@ -7949,10 +8354,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -7962,19 +8367,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="39"/>
       <c r="F24" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -8020,10 +8425,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8062,31 +8467,31 @@
         <v>314</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>538</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -8106,10 +8511,10 @@
         <v>360</v>
       </c>
       <c r="F5" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>452</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8127,15 +8532,15 @@
         <v>361</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>107</v>
@@ -8148,10 +8553,10 @@
         <v>362</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -8169,10 +8574,10 @@
         <v>363</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -8190,15 +8595,15 @@
         <v>408</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>106</v>
@@ -8217,23 +8622,23 @@
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -8289,31 +8694,31 @@
         <v>366</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>559</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>558</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -8333,7 +8738,7 @@
         <v>367</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -8360,7 +8765,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>108</v>
@@ -8373,29 +8778,29 @@
         <v>369</v>
       </c>
       <c r="F18" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>452</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="35" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -8419,7 +8824,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>108</v>
@@ -8436,103 +8841,103 @@
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="50" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F23" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>576</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -8544,10 +8949,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:G40"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8578,15 +8983,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>106</v>
@@ -8620,31 +9025,31 @@
         <v>314</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>538</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -8664,10 +9069,10 @@
         <v>371</v>
       </c>
       <c r="F5" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -8685,15 +9090,15 @@
         <v>372</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>107</v>
@@ -8706,10 +9111,10 @@
         <v>372</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -8727,10 +9132,10 @@
         <v>373</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -8748,10 +9153,10 @@
         <v>235</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -8792,23 +9197,23 @@
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>409</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -8847,7 +9252,7 @@
     </row>
     <row r="15" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>176</v>
@@ -8860,15 +9265,15 @@
         <v>375</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>106</v>
@@ -8881,10 +9286,10 @@
         <v>376</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -8957,29 +9362,29 @@
         <v>377</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="34" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -8999,7 +9404,7 @@
         <v>378</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>41</v>
@@ -9038,29 +9443,29 @@
       <c r="E24" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>591</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -9079,10 +9484,10 @@
         <v>380</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -9100,10 +9505,10 @@
         <v>371</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -9121,15 +9526,15 @@
         <v>381</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9137,271 +9542,309 @@
       <c r="E29" s="19"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F31" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>576</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36" t="s">
-        <v>593</v>
+        <v>676</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
+        <v>677</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="36"/>
+        <v>675</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>595</v>
+        <v>108</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="36" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>616</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>496</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>595</v>
+        <v>530</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="36" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>617</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>462</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="36"/>
+        <v>598</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>286</v>
+        <v>530</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="36" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>651</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="C41" s="36"/>
-      <c r="D41" s="32" t="s">
-        <v>609</v>
+      <c r="D41" s="36" t="s">
+        <v>603</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>610</v>
+        <v>648</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>611</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>553</v>
+        <v>108</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="32" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F42" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G43" s="36" t="s">
         <v>610</v>
       </c>
-      <c r="G42" s="36" t="s">
-        <v>614</v>
-      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/KNUH/감염병 CDM ETL정의서_경북대.xlsx
+++ b/KNUH/감염병 CDM ETL정의서_경북대.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\KNUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jbcd\Infectious_CDM\KNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995B0B4-6997-4D39-B1DD-74EB9BFD6E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B87B7A-90BB-42C1-A7E4-8D04CE151A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="855" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="741">
   <si>
     <t>필드명</t>
   </si>
@@ -1782,14 +1782,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>필요 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중환자실 입퇴원 이력?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPTCD</t>
   </si>
   <si>
@@ -2137,9 +2129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DIAGNAME</t>
-  </si>
-  <si>
     <t>환자구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2931,6 +2920,34 @@
   </si>
   <si>
     <t>PID + ORDDEPTCD + ORDDD(INDD) + CRETNO + INSTCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMIHICDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROMDD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOMCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARDCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMENGNM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRTMTERM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3789,16 +3806,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3815,7 +3832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3832,7 +3849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -3847,7 +3864,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3879,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -3877,7 +3894,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -3892,7 +3909,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3922,7 +3939,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -3937,7 +3954,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -3952,7 +3969,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>164</v>
       </c>
@@ -3977,22 +3994,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4032,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>62</v>
       </c>
@@ -4034,7 +4051,7 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="70" t="s">
         <v>29</v>
       </c>
@@ -4057,67 +4074,67 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="79"/>
       <c r="F4" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="79"/>
       <c r="F5" s="49" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="71"/>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
       <c r="E6" s="80"/>
       <c r="F6" s="49" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>514</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
@@ -4140,46 +4157,46 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
       <c r="A9" s="77"/>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
       <c r="E9" s="75"/>
       <c r="F9" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="77"/>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
       <c r="E10" s="75"/>
       <c r="F10" s="49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="77"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
       <c r="E11" s="76"/>
       <c r="F11" s="49" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="70" t="s">
         <v>51</v>
       </c>
@@ -4191,7 +4208,7 @@
         <v>246</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>440</v>
@@ -4200,46 +4217,46 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="77"/>
       <c r="B13" s="77"/>
       <c r="C13" s="77"/>
       <c r="D13" s="77"/>
       <c r="E13" s="75"/>
       <c r="F13" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="77"/>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
       <c r="E14" s="75"/>
       <c r="F14" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="77"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
       <c r="E15" s="76"/>
       <c r="F15" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="G15" s="50" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="70" t="s">
         <v>52</v>
       </c>
@@ -4251,7 +4268,7 @@
         <v>247</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>440</v>
@@ -4260,46 +4277,46 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="77"/>
       <c r="B17" s="77"/>
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
       <c r="E17" s="75"/>
       <c r="F17" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G17" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="77"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
       <c r="E18" s="75"/>
       <c r="F18" s="49" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="77"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
       <c r="E19" s="76"/>
       <c r="F19" s="49" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="70" t="s">
         <v>96</v>
       </c>
@@ -4311,7 +4328,7 @@
         <v>248</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>440</v>
@@ -4320,33 +4337,33 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="77"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="75"/>
       <c r="F21" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="G21" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="G21" s="50" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="71"/>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
       <c r="E22" s="76"/>
       <c r="F22" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
         <v>53</v>
       </c>
@@ -4365,28 +4382,28 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
         <v>54</v>
       </c>
@@ -4406,31 +4423,31 @@
         <v>440</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="72" t="s">
         <v>55</v>
       </c>
@@ -4448,23 +4465,23 @@
         <v>440</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="71"/>
       <c r="E28" s="69"/>
       <c r="F28" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
@@ -4483,28 +4500,28 @@
       <c r="F29" s="53"/>
       <c r="G29" s="48"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="405" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A31" s="45" t="s">
         <v>243</v>
       </c>
@@ -4523,28 +4540,28 @@
       <c r="F31" s="53"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="45" t="s">
         <v>57</v>
       </c>
@@ -4565,7 +4582,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -4586,7 +4603,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
@@ -4609,20 +4626,20 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="82"/>
       <c r="B36" s="82"/>
       <c r="C36" s="82"/>
       <c r="D36" s="77"/>
       <c r="E36" s="81"/>
       <c r="F36" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G36" s="53" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -4635,26 +4652,26 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="45" t="s">
         <v>41</v>
       </c>
@@ -4677,7 +4694,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="45" t="s">
         <v>94</v>
       </c>
@@ -4696,7 +4713,7 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A41" s="70" t="s">
         <v>59</v>
       </c>
@@ -4717,88 +4734,88 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
       <c r="A42" s="77"/>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
       <c r="D42" s="77"/>
       <c r="E42" s="79"/>
       <c r="F42" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A43" s="77"/>
       <c r="B43" s="77"/>
       <c r="C43" s="77"/>
       <c r="D43" s="77"/>
       <c r="E43" s="79"/>
       <c r="F43" s="49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
       <c r="E44" s="80"/>
       <c r="F44" s="49" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A47" s="45" t="s">
         <v>60</v>
       </c>
@@ -4817,7 +4834,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A48" s="45" t="s">
         <v>97</v>
       </c>
@@ -4832,13 +4849,13 @@
         <v>372</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="45" t="s">
         <v>61</v>
       </c>
@@ -4859,7 +4876,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="45" t="s">
         <v>415</v>
       </c>
@@ -4872,326 +4889,326 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A51" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="49" t="s">
         <v>440</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="54" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="54" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="54" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>657</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A61" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="38" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A62" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="54" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="54" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G64" s="48" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="54" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="54" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="48" t="s">
@@ -5255,18 +5272,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5289,7 +5306,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>63</v>
       </c>
@@ -5308,7 +5325,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>29</v>
       </c>
@@ -5325,34 +5342,34 @@
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A5" s="46" t="s">
         <v>64</v>
       </c>
@@ -5369,13 +5386,13 @@
         <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A6" s="46" t="s">
         <v>65</v>
       </c>
@@ -5390,13 +5407,13 @@
         <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A7" s="46" t="s">
         <v>66</v>
       </c>
@@ -5411,30 +5428,30 @@
         <v>375</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="46" t="s">
         <v>67</v>
       </c>
@@ -5453,26 +5470,26 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="46" t="s">
         <v>68</v>
       </c>
@@ -5491,7 +5508,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="46" t="s">
         <v>69</v>
       </c>
@@ -5508,7 +5525,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A13" s="46" t="s">
         <v>4</v>
       </c>
@@ -5525,32 +5542,32 @@
         <v>417</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="46" t="s">
         <v>41</v>
       </c>
@@ -5567,13 +5584,13 @@
         <v>378</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="46" t="s">
         <v>94</v>
       </c>
@@ -5592,7 +5609,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
       <c r="A17" s="46" t="s">
         <v>70</v>
       </c>
@@ -5607,49 +5624,49 @@
         <v>379</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="46" t="s">
         <v>71</v>
       </c>
@@ -5668,7 +5685,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A21" s="46" t="s">
         <v>90</v>
       </c>
@@ -5685,7 +5702,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="46" t="s">
         <v>415</v>
       </c>
@@ -5698,348 +5715,348 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="49"/>
       <c r="G23" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="B28" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G32" s="48" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>657</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="48"/>
@@ -6059,18 +6076,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" customWidth="1"/>
+    <col min="6" max="6" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6093,9 +6110,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>106</v>
@@ -6104,15 +6121,15 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
@@ -6123,73 +6140,73 @@
         <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="23" t="s">
         <v>723</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>726</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -6208,18 +6225,18 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6242,7 +6259,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -6261,7 +6278,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -6276,13 +6293,13 @@
         <v>310</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -6301,7 +6318,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -6324,7 +6341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -6339,13 +6356,13 @@
         <v>312</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -6360,10 +6377,10 @@
         <v>313</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6380,18 +6397,18 @@
       <selection activeCell="G15" sqref="A14:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6414,7 +6431,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -6433,7 +6450,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -6446,13 +6463,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -6464,12 +6481,12 @@
         <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -6481,12 +6498,12 @@
         <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
@@ -6505,28 +6522,28 @@
       <c r="F6" s="23"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -6543,34 +6560,34 @@
         <v>314</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -6582,16 +6599,16 @@
         <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -6610,7 +6627,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -6625,13 +6642,13 @@
         <v>316</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -6646,30 +6663,30 @@
         <v>317</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -6688,7 +6705,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -6700,16 +6717,16 @@
         <v>146</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -6743,18 +6760,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>111</v>
       </c>
@@ -6777,7 +6794,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>276</v>
       </c>
@@ -6794,13 +6811,13 @@
         <v>380</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>278</v>
       </c>
@@ -6817,13 +6834,13 @@
         <v>296</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>279</v>
       </c>
@@ -6838,13 +6855,13 @@
         <v>297</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>280</v>
       </c>
@@ -6859,13 +6876,13 @@
         <v>298</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>282</v>
       </c>
@@ -6880,13 +6897,13 @@
         <v>299</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>284</v>
       </c>
@@ -6901,13 +6918,13 @@
         <v>152</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>397</v>
       </c>
@@ -6919,16 +6936,16 @@
         <v>398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -6940,16 +6957,16 @@
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -6963,12 +6980,12 @@
         <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>287</v>
       </c>
@@ -6979,19 +6996,19 @@
         <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>288</v>
       </c>
@@ -7002,15 +7019,15 @@
         <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>289</v>
       </c>
@@ -7024,12 +7041,12 @@
         <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -7038,40 +7055,40 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>291</v>
       </c>
@@ -7080,19 +7097,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>303</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>292</v>
       </c>
@@ -7103,7 +7120,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>301</v>
@@ -7111,7 +7128,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -7120,19 +7137,19 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>293</v>
       </c>
@@ -7143,15 +7160,15 @@
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>294</v>
       </c>
@@ -7160,15 +7177,15 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>295</v>
       </c>
@@ -7179,54 +7196,54 @@
         <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F23" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -7244,16 +7261,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.875" customWidth="1"/>
-    <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.8984375" customWidth="1"/>
+    <col min="5" max="5" width="43.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7270,7 +7287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>104</v>
       </c>
@@ -7287,7 +7304,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -7302,7 +7319,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -7317,7 +7334,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -7334,7 +7351,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -7351,7 +7368,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -7366,7 +7383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -7398,18 +7415,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="49.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7432,7 +7449,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>424</v>
       </c>
@@ -7451,7 +7468,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
@@ -7468,47 +7485,47 @@
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
       <c r="E4" s="63"/>
       <c r="F4" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="G5" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="58" t="s">
         <v>39</v>
       </c>
@@ -7525,26 +7542,26 @@
         <v>326</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
       <c r="E7" s="61"/>
       <c r="F7" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="58" t="s">
         <v>30</v>
       </c>
@@ -7559,26 +7576,26 @@
         <v>327</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
       <c r="E9" s="67"/>
       <c r="F9" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="58" t="s">
         <v>31</v>
       </c>
@@ -7593,26 +7610,26 @@
         <v>328</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="65"/>
       <c r="F11" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
@@ -7627,26 +7644,26 @@
         <v>329</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="61"/>
       <c r="F13" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="58" t="s">
         <v>33</v>
       </c>
@@ -7661,26 +7678,26 @@
         <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="61"/>
       <c r="F15" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="29" t="s">
         <v>34</v>
       </c>
@@ -7699,28 +7716,28 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="58" t="s">
         <v>4</v>
       </c>
@@ -7737,26 +7754,26 @@
         <v>332</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="61"/>
       <c r="F19" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="58" t="s">
         <v>5</v>
       </c>
@@ -7773,24 +7790,24 @@
         <v>333</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="61"/>
       <c r="F21" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="58" t="s">
         <v>36</v>
       </c>
@@ -7805,24 +7822,24 @@
         <v>392</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
       <c r="E23" s="61"/>
       <c r="F23" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G23" s="67"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="58" t="s">
         <v>37</v>
       </c>
@@ -7839,24 +7856,24 @@
         <v>334</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="E25" s="61"/>
       <c r="F25" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G25" s="67"/>
     </row>
-    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A26" s="29" t="s">
         <v>93</v>
       </c>
@@ -7875,7 +7892,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A27" s="29" t="s">
         <v>95</v>
       </c>
@@ -7896,7 +7913,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="109.2" x14ac:dyDescent="0.4">
       <c r="A28" s="29" t="s">
         <v>35</v>
       </c>
@@ -7915,7 +7932,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
@@ -7936,7 +7953,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="29" t="s">
         <v>40</v>
       </c>
@@ -7957,71 +7974,71 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A31" s="29" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="13" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="53">
     <mergeCell ref="D24:D25"/>
@@ -8086,24 +8103,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:G24"/>
+    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -8125,13 +8142,10 @@
       <c r="G1" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="I1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>106</v>
@@ -8147,11 +8161,8 @@
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="I2" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -8167,31 +8178,35 @@
       <c r="E3" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -8210,7 +8225,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>402</v>
       </c>
@@ -8224,10 +8239,14 @@
       <c r="E6" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>403</v>
       </c>
@@ -8241,10 +8260,14 @@
       <c r="E7" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
@@ -8258,10 +8281,14 @@
       <c r="E8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>404</v>
       </c>
@@ -8275,10 +8302,14 @@
       <c r="E9" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>191</v>
       </c>
@@ -8292,33 +8323,33 @@
         <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -8334,10 +8365,14 @@
       <c r="E12" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="F12" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -8353,10 +8388,14 @@
       <c r="E13" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -8370,10 +8409,14 @@
       <c r="E14" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -8387,12 +8430,12 @@
         <v>177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>405</v>
       </c>
@@ -8406,12 +8449,12 @@
         <v>179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>406</v>
       </c>
@@ -8423,12 +8466,12 @@
         <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>407</v>
       </c>
@@ -8440,12 +8483,12 @@
         <v>182</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>194</v>
       </c>
@@ -8459,12 +8502,12 @@
         <v>184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>195</v>
       </c>
@@ -8483,7 +8526,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>401</v>
       </c>
@@ -8495,12 +8538,12 @@
         <v>199</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -8519,74 +8562,78 @@
       <c r="F22" s="23"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -8602,22 +8649,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.8984375" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -8640,7 +8687,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -8659,7 +8706,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -8682,28 +8729,28 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -8726,7 +8773,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -8747,7 +8794,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>408</v>
       </c>
@@ -8768,7 +8815,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -8783,13 +8830,13 @@
         <v>348</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -8804,13 +8851,13 @@
         <v>388</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>409</v>
       </c>
@@ -8829,28 +8876,28 @@
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -8869,7 +8916,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -8886,7 +8933,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -8909,28 +8956,28 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -8947,13 +8994,13 @@
         <v>352</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
@@ -8972,7 +9019,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>410</v>
       </c>
@@ -8993,26 +9040,28 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" s="23"/>
+        <v>537</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>740</v>
+      </c>
       <c r="G19" s="13" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -9031,7 +9080,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>411</v>
       </c>
@@ -9048,107 +9097,107 @@
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E24" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="B25" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -9162,22 +9211,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.25" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.19921875" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9200,9 +9249,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>106</v>
@@ -9219,7 +9268,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -9242,28 +9291,28 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -9277,7 +9326,7 @@
         <v>221</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>432</v>
@@ -9286,7 +9335,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
@@ -9307,7 +9356,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>412</v>
       </c>
@@ -9328,7 +9377,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
@@ -9349,7 +9398,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
@@ -9370,7 +9419,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -9382,12 +9431,12 @@
         <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>77</v>
       </c>
@@ -9401,33 +9450,33 @@
         <v>272</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -9439,12 +9488,12 @@
         <v>228</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>79</v>
       </c>
@@ -9456,12 +9505,12 @@
         <v>229</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>413</v>
       </c>
@@ -9482,7 +9531,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>414</v>
       </c>
@@ -9503,7 +9552,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -9515,12 +9564,12 @@
         <v>232</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -9534,12 +9583,12 @@
         <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -9551,12 +9600,12 @@
         <v>234</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -9579,28 +9628,28 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -9623,7 +9672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41" t="s">
         <v>94</v>
       </c>
@@ -9637,12 +9686,12 @@
         <v>238</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -9660,48 +9709,48 @@
         <v>432</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>84</v>
       </c>
@@ -9715,12 +9764,12 @@
         <v>239</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -9732,16 +9781,16 @@
         <v>240</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="42" t="s">
         <v>88</v>
       </c>
@@ -9759,10 +9808,10 @@
         <v>432</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>415</v>
       </c>
@@ -9770,312 +9819,312 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="B34" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>568</v>
-      </c>
       <c r="B38" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="B44" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="2"/>

--- a/KNUH/감염병 CDM ETL정의서_경북대.xlsx
+++ b/KNUH/감염병 CDM ETL정의서_경북대.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jbcd\Infectious_CDM\KNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B87B7A-90BB-42C1-A7E4-8D04CE151A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E77EF-C6BC-4F3B-9FE5-573B0181DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="855" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -3437,11 +3437,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3449,29 +3449,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3482,22 +3482,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3994,7 +3994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
@@ -4052,19 +4052,19 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="68" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -4075,11 +4075,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="79"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="49" t="s">
         <v>471</v>
       </c>
@@ -4088,11 +4088,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="79"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="49" t="s">
         <v>478</v>
       </c>
@@ -4101,11 +4101,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="49" t="s">
         <v>613</v>
       </c>
@@ -4135,16 +4135,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="71" t="s">
         <v>245</v>
       </c>
       <c r="E8" s="74" t="s">
@@ -4158,10 +4158,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="75"/>
       <c r="F9" s="49" t="s">
         <v>471</v>
@@ -4171,10 +4171,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="75"/>
       <c r="F10" s="49" t="s">
         <v>479</v>
@@ -4184,10 +4184,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="76"/>
       <c r="F11" s="49" t="s">
         <v>613</v>
@@ -4197,14 +4197,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71" t="s">
         <v>246</v>
       </c>
       <c r="E12" s="74" t="s">
@@ -4218,10 +4218,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="75"/>
       <c r="F13" s="49" t="s">
         <v>471</v>
@@ -4231,10 +4231,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="75"/>
       <c r="F14" s="49" t="s">
         <v>478</v>
@@ -4244,10 +4244,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="76"/>
       <c r="F15" s="49" t="s">
         <v>613</v>
@@ -4257,14 +4257,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>247</v>
       </c>
       <c r="E16" s="74" t="s">
@@ -4278,10 +4278,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="75"/>
       <c r="F17" s="49" t="s">
         <v>471</v>
@@ -4291,10 +4291,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="75"/>
       <c r="F18" s="49" t="s">
         <v>478</v>
@@ -4304,10 +4304,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="76"/>
       <c r="F19" s="49" t="s">
         <v>613</v>
@@ -4317,14 +4317,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="71" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="74" t="s">
@@ -4338,10 +4338,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="75"/>
       <c r="F21" s="49" t="s">
         <v>478</v>
@@ -4351,10 +4351,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="76"/>
       <c r="F22" s="49" t="s">
         <v>613</v>
@@ -4448,17 +4448,17 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="70" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="77" t="s">
         <v>367</v>
       </c>
       <c r="F27" s="53" t="s">
@@ -4469,11 +4469,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="69"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="49" t="s">
         <v>471</v>
       </c>
@@ -4604,19 +4604,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="77" t="s">
         <v>360</v>
       </c>
       <c r="F35" s="53" t="s">
@@ -4627,11 +4627,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="81"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="49" t="s">
         <v>471</v>
       </c>
@@ -4640,11 +4640,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="69"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="53" t="s">
         <v>432</v>
       </c>
@@ -4714,17 +4714,17 @@
       <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70" t="s">
+      <c r="C41" s="71"/>
+      <c r="D41" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="68" t="s">
         <v>371</v>
       </c>
       <c r="F41" s="49" t="s">
@@ -4735,11 +4735,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="49" t="s">
         <v>471</v>
       </c>
@@ -4748,11 +4748,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="79"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="49" t="s">
         <v>479</v>
       </c>
@@ -4761,11 +4761,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="80"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="49" t="s">
         <v>613</v>
       </c>
@@ -5217,46 +5217,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="D41:D44"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5268,7 +5268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -6393,8 +6393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="A14:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7481,7 +7481,7 @@
       <c r="D3" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="66" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -7496,7 +7496,7 @@
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="1" t="s">
         <v>482</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="D8" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="62" t="s">
         <v>327</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -7587,7 +7587,7 @@
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="67"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="1" t="s">
         <v>482</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="F20" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="62" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       <c r="F21" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="58" t="s">
@@ -7824,7 +7824,7 @@
       <c r="F22" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="62" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="F23" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="58" t="s">
@@ -7858,7 +7858,7 @@
       <c r="F24" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="62" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       <c r="F25" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" ht="78" x14ac:dyDescent="0.4">
       <c r="A26" s="29" t="s">
@@ -8041,6 +8041,43 @@
     <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
@@ -8057,43 +8094,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8649,8 +8649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9211,7 +9211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/KNUH/감염병 CDM ETL정의서_경북대.xlsx
+++ b/KNUH/감염병 CDM ETL정의서_경북대.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jbcd\Infectious_CDM\KNUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\KNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E77EF-C6BC-4F3B-9FE5-573B0181DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F057A0-B073-45E3-AEC5-8D11E727712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="855" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -1725,10 +1725,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ORDDD + PRCPDAYNO + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PRCPQTY * PRCPTIMS * PRCPDAYNO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2948,6 +2944,10 @@
   </si>
   <si>
     <t>MRTMTERM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDDD + PRCPDAYNO - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3437,11 +3437,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3449,11 +3449,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3464,40 +3494,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3806,16 +3806,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>164</v>
       </c>
@@ -3998,18 +3998,18 @@
       <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4026,13 +4026,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>62</v>
       </c>
@@ -4051,20 +4051,20 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="78" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -4074,296 +4074,296 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="69"/>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="69"/>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="70"/>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="F7" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>512</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="70" t="s">
         <v>245</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>365</v>
       </c>
       <c r="F8" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="75"/>
       <c r="F9" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="75"/>
       <c r="F10" s="49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="76"/>
       <c r="F11" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70" t="s">
         <v>246</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="75"/>
       <c r="F13" s="49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="75"/>
       <c r="F14" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="76"/>
       <c r="F15" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="71" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70" t="s">
         <v>247</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="75"/>
       <c r="F17" s="49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G17" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="75"/>
       <c r="F18" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="76"/>
       <c r="F19" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="71" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="75"/>
       <c r="F21" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="76"/>
       <c r="F22" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>53</v>
       </c>
@@ -4382,28 +4382,28 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F24" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>54</v>
       </c>
@@ -4420,68 +4420,68 @@
         <v>366</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>590</v>
-      </c>
       <c r="F26" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="80" t="s">
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="71" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="68" t="s">
         <v>367</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="79"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="G28" s="50" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
@@ -4500,28 +4500,28 @@
       <c r="F29" s="53"/>
       <c r="G29" s="48"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>593</v>
-      </c>
       <c r="F30" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="405" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>243</v>
       </c>
@@ -4540,28 +4540,28 @@
       <c r="F31" s="53"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>595</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>57</v>
       </c>
@@ -4576,13 +4576,13 @@
         <v>368</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -4597,81 +4597,81 @@
         <v>369</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A35" s="80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="68" t="s">
         <v>360</v>
       </c>
       <c r="F35" s="53" t="s">
         <v>432</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="78"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="79"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="53" t="s">
         <v>432</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>41</v>
       </c>
@@ -4688,13 +4688,13 @@
         <v>370</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>94</v>
       </c>
@@ -4713,109 +4713,109 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71" t="s">
+      <c r="C41" s="70"/>
+      <c r="D41" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="78" t="s">
         <v>371</v>
       </c>
       <c r="F41" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G41" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" ht="134.4" x14ac:dyDescent="0.4">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="69"/>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="G42" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="G42" s="50" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="69"/>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="70"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>60</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>97</v>
       </c>
@@ -4849,13 +4849,13 @@
         <v>372</v>
       </c>
       <c r="F48" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="G48" s="48" t="s">
         <v>630</v>
       </c>
-      <c r="G48" s="48" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>61</v>
       </c>
@@ -4870,13 +4870,13 @@
         <v>373</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>415</v>
       </c>
@@ -4889,374 +4889,374 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>599</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>600</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="F54" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E56" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="G56" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="F56" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="54" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="B60" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F60" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="G60" s="53" t="s">
         <v>669</v>
       </c>
-      <c r="G60" s="53" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="9" t="s">
-        <v>607</v>
-      </c>
       <c r="B65" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>610</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5272,18 +5272,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5300,13 +5300,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>63</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>29</v>
       </c>
@@ -5342,34 +5342,34 @@
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>64</v>
       </c>
@@ -5386,13 +5386,13 @@
         <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>65</v>
       </c>
@@ -5407,13 +5407,13 @@
         <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>66</v>
       </c>
@@ -5428,30 +5428,30 @@
         <v>375</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>67</v>
       </c>
@@ -5470,26 +5470,26 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>68</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>69</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>4</v>
       </c>
@@ -5542,32 +5542,32 @@
         <v>417</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>41</v>
       </c>
@@ -5584,13 +5584,13 @@
         <v>378</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>94</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>70</v>
       </c>
@@ -5624,49 +5624,49 @@
         <v>379</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>90</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>415</v>
       </c>
@@ -5715,348 +5715,348 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="49"/>
       <c r="G23" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>599</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>600</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="62.4" x14ac:dyDescent="0.4">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="F26" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F28" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="G28" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="G28" s="48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G32" s="48" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>610</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G38" s="53" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>610</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>626</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
-        <v>627</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="48"/>
@@ -6076,18 +6076,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" customWidth="1"/>
-    <col min="5" max="5" width="30.8984375" customWidth="1"/>
-    <col min="6" max="6" width="28.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6104,15 +6104,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>106</v>
@@ -6121,15 +6121,15 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
@@ -6140,73 +6140,73 @@
         <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>717</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>718</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>723</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
-        <v>726</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -6225,18 +6225,18 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6253,13 +6253,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -6293,13 +6293,13 @@
         <v>310</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -6318,7 +6318,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -6356,13 +6356,13 @@
         <v>312</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -6377,10 +6377,10 @@
         <v>313</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6393,22 +6393,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6425,13 +6425,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -6463,13 +6463,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -6481,12 +6481,12 @@
         <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -6498,12 +6498,12 @@
         <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
@@ -6522,28 +6522,28 @@
       <c r="F6" s="23"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -6560,34 +6560,34 @@
         <v>314</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="F9" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -6599,16 +6599,16 @@
         <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -6642,13 +6642,13 @@
         <v>316</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -6663,30 +6663,30 @@
         <v>317</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -6717,16 +6717,16 @@
         <v>146</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F16" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -6760,18 +6760,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>111</v>
       </c>
@@ -6788,13 +6788,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>276</v>
       </c>
@@ -6811,13 +6811,13 @@
         <v>380</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>278</v>
       </c>
@@ -6834,13 +6834,13 @@
         <v>296</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>279</v>
       </c>
@@ -6855,13 +6855,13 @@
         <v>297</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>280</v>
       </c>
@@ -6876,13 +6876,13 @@
         <v>298</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>282</v>
       </c>
@@ -6897,13 +6897,13 @@
         <v>299</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>284</v>
       </c>
@@ -6918,13 +6918,13 @@
         <v>152</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>397</v>
       </c>
@@ -6936,16 +6936,16 @@
         <v>398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -6957,16 +6957,16 @@
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -6980,12 +6980,12 @@
         <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>287</v>
       </c>
@@ -6996,19 +6996,19 @@
         <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>288</v>
       </c>
@@ -7019,15 +7019,15 @@
         <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>289</v>
       </c>
@@ -7041,12 +7041,12 @@
         <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -7055,40 +7055,40 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="F15" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>291</v>
       </c>
@@ -7097,19 +7097,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>303</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>292</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>301</v>
@@ -7128,7 +7128,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -7137,19 +7137,19 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>293</v>
       </c>
@@ -7160,15 +7160,15 @@
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>294</v>
       </c>
@@ -7177,15 +7177,15 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>295</v>
       </c>
@@ -7196,54 +7196,54 @@
         <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F22" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7261,16 +7261,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.8984375" customWidth="1"/>
-    <col min="5" max="5" width="43.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.875" customWidth="1"/>
+    <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>104</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -7415,18 +7415,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="5" max="5" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7443,13 +7443,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>424</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
@@ -7481,51 +7481,51 @@
       <c r="D3" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="62" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
-      <c r="E4" s="67"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>39</v>
       </c>
@@ -7542,26 +7542,26 @@
         <v>326</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
       <c r="E7" s="61"/>
       <c r="F7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>30</v>
       </c>
@@ -7572,30 +7572,30 @@
       <c r="D8" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="66" t="s">
         <v>327</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>31</v>
       </c>
@@ -7610,26 +7610,26 @@
         <v>328</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="65"/>
       <c r="F11" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
@@ -7644,26 +7644,26 @@
         <v>329</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="61"/>
       <c r="F13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>33</v>
       </c>
@@ -7678,26 +7678,26 @@
         <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="61"/>
       <c r="F15" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>34</v>
       </c>
@@ -7716,28 +7716,28 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>516</v>
-      </c>
       <c r="F17" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
         <v>4</v>
       </c>
@@ -7754,26 +7754,26 @@
         <v>332</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="61"/>
       <c r="F19" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>5</v>
       </c>
@@ -7790,24 +7790,24 @@
         <v>333</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="61"/>
       <c r="F21" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="G21" s="67"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>36</v>
       </c>
@@ -7822,24 +7822,24 @@
         <v>392</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
       <c r="E23" s="61"/>
       <c r="F23" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="58" t="s">
         <v>37</v>
       </c>
@@ -7856,24 +7856,24 @@
         <v>334</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="E25" s="61"/>
       <c r="F25" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>93</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>95</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="109.2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>35</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="93.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>40</v>
       </c>
@@ -7974,110 +7974,73 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
@@ -8094,6 +8057,43 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8109,18 +8109,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -8137,15 +8137,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>106</v>
@@ -8162,7 +8162,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -8179,34 +8179,34 @@
         <v>336</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>402</v>
       </c>
@@ -8240,13 +8240,13 @@
         <v>337</v>
       </c>
       <c r="F6" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>403</v>
       </c>
@@ -8261,13 +8261,13 @@
         <v>338</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
@@ -8282,13 +8282,13 @@
         <v>339</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>404</v>
       </c>
@@ -8303,13 +8303,13 @@
         <v>340</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>191</v>
       </c>
@@ -8323,33 +8323,33 @@
         <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -8366,13 +8366,13 @@
         <v>341</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -8389,13 +8389,13 @@
         <v>342</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -8410,13 +8410,13 @@
         <v>343</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -8430,12 +8430,12 @@
         <v>177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>405</v>
       </c>
@@ -8449,12 +8449,12 @@
         <v>179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>406</v>
       </c>
@@ -8466,12 +8466,12 @@
         <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>407</v>
       </c>
@@ -8483,12 +8483,12 @@
         <v>182</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>194</v>
       </c>
@@ -8502,12 +8502,12 @@
         <v>184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>195</v>
       </c>
@@ -8526,7 +8526,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>401</v>
       </c>
@@ -8538,12 +8538,12 @@
         <v>199</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -8562,78 +8562,78 @@
       <c r="F22" s="23"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>734</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -8653,18 +8653,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.8984375" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -8681,13 +8681,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -8729,28 +8729,28 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>408</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -8830,13 +8830,13 @@
         <v>348</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -8851,13 +8851,13 @@
         <v>388</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>409</v>
       </c>
@@ -8876,28 +8876,28 @@
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>530</v>
-      </c>
       <c r="F11" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -8953,31 +8953,31 @@
         <v>427</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -8994,13 +8994,13 @@
         <v>352</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>410</v>
       </c>
@@ -9040,28 +9040,28 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>537</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -9080,7 +9080,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>411</v>
       </c>
@@ -9097,107 +9097,107 @@
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>540</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E24" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>546</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -9211,22 +9211,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.19921875" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9243,15 +9243,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>106</v>
@@ -9268,7 +9268,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -9291,28 +9291,28 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>221</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>432</v>
@@ -9335,7 +9335,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>412</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
@@ -9395,10 +9395,10 @@
         <v>432</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
@@ -9416,10 +9416,10 @@
         <v>432</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -9431,12 +9431,12 @@
         <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>77</v>
       </c>
@@ -9450,33 +9450,33 @@
         <v>272</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F12" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -9488,12 +9488,12 @@
         <v>228</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>79</v>
       </c>
@@ -9505,12 +9505,12 @@
         <v>229</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>413</v>
       </c>
@@ -9528,10 +9528,10 @@
         <v>432</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>414</v>
       </c>
@@ -9549,10 +9549,10 @@
         <v>432</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -9564,12 +9564,12 @@
         <v>232</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -9583,12 +9583,12 @@
         <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -9600,12 +9600,12 @@
         <v>234</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -9625,31 +9625,31 @@
         <v>432</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -9666,13 +9666,13 @@
         <v>361</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>94</v>
       </c>
@@ -9686,12 +9686,12 @@
         <v>238</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -9709,48 +9709,48 @@
         <v>432</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F26" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>84</v>
       </c>
@@ -9764,12 +9764,12 @@
         <v>239</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -9781,16 +9781,16 @@
         <v>240</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>88</v>
       </c>
@@ -9808,10 +9808,10 @@
         <v>432</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>415</v>
       </c>
@@ -9819,312 +9819,312 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="F32" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="B38" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>567</v>
-      </c>
       <c r="B39" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>570</v>
-      </c>
       <c r="B40" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>572</v>
-      </c>
       <c r="B41" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="B44" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="2"/>

--- a/KNUH/감염병 CDM ETL정의서_경북대.xlsx
+++ b/KNUH/감염병 CDM ETL정의서_경북대.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\KNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F057A0-B073-45E3-AEC5-8D11E727712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EAF36A-DE7D-4906-802F-0A29D026496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="855" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
-    <sheet name="CARE_SITE" sheetId="3" r:id="rId2"/>
-    <sheet name="PROVIDER" sheetId="4" r:id="rId3"/>
-    <sheet name="PERSON" sheetId="1" r:id="rId4"/>
-    <sheet name="DEATH" sheetId="14" state="hidden" r:id="rId5"/>
-    <sheet name="VISIT_OCCURRENCE" sheetId="5" r:id="rId6"/>
-    <sheet name="VISIT_DETAIL" sheetId="16" r:id="rId7"/>
-    <sheet name="CONDITION_OCCURRENCE" sheetId="6" r:id="rId8"/>
-    <sheet name="DRUG_EXPOSURE" sheetId="13" r:id="rId9"/>
-    <sheet name="MEASUREMENT" sheetId="7" r:id="rId10"/>
-    <sheet name="PROCEDURE_OCCURRENCE" sheetId="9" r:id="rId11"/>
-    <sheet name="OBSERVATION_PERIOD" sheetId="17" r:id="rId12"/>
+    <sheet name="테이블정의" sheetId="18" r:id="rId1"/>
+    <sheet name="LOCATION" sheetId="2" r:id="rId2"/>
+    <sheet name="CARE_SITE" sheetId="3" r:id="rId3"/>
+    <sheet name="PROVIDER" sheetId="4" r:id="rId4"/>
+    <sheet name="PERSON" sheetId="1" r:id="rId5"/>
+    <sheet name="DEATH" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="VISIT_OCCURRENCE" sheetId="5" r:id="rId7"/>
+    <sheet name="VISIT_DETAIL" sheetId="16" r:id="rId8"/>
+    <sheet name="CONDITION_OCCURRENCE" sheetId="6" r:id="rId9"/>
+    <sheet name="DRUG_EXPOSURE" sheetId="13" r:id="rId10"/>
+    <sheet name="MEASUREMENT" sheetId="7" r:id="rId11"/>
+    <sheet name="PROCEDURE_OCCURRENCE" sheetId="9" r:id="rId12"/>
+    <sheet name="OBSERVATION_PERIOD" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="782">
   <si>
     <t>필드명</t>
   </si>
@@ -2950,12 +2951,167 @@
     <t>ORDDD + PRCPDAYNO - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ohdsi-korea/ThemisKorea/tree/master/location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARE_SITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료부서정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료진기본정보</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자기본정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/O받은 환자는 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자내원기록정보</t>
+  </si>
+  <si>
+    <t>VISIT_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자내원세부정보</t>
+  </si>
+  <si>
+    <t>ICU입퇴실 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_KCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상병코드 매핑정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원내 상병코드와 KCD concept_id간의 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDITION_OCCURRENCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자상태진단정보</t>
+  </si>
+  <si>
+    <t>LOCAL_EDI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방코드 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원내 처방코드와 EDI OR KDC concept_id간의 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUG_EXPOSURE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자처방약정보</t>
+  </si>
+  <si>
+    <t>D/C처방은 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자검사결과정보</t>
+  </si>
+  <si>
+    <t>진단검사, 병리검사, 활력징후 데이터 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCEDURE_OCCURRENCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자처치정보</t>
+  </si>
+  <si>
+    <t>영상검사, 수술, 처치 처방 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBSERVATION_PERIOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자관찰기간정보</t>
+  </si>
+  <si>
+    <t>CDM테이블 중 visit_occurrence, condition_occurrence, drug_exposure, measurement, procedure_occurrence 테이블에서 START_DATE(최소값), END_DATE(최대값)으로 정함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDITION_ERA</t>
+  </si>
+  <si>
+    <t>condition_occurrence테이블 통해 파생되는  데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUG_ERA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug_exposure테이블을 통해 파생되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3133,6 +3289,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3243,14 +3432,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3437,11 +3629,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3449,29 +3641,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3482,29 +3674,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3799,198 +4013,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C734C3E-EB61-4C16-9E65-0958CC4869D8}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="83" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="85">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="85">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>750</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="85">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="85">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>754</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="85">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>756</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="85">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="85">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>762</v>
+      </c>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="85">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B10" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>764</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="85">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B11" s="38" t="s">
+        <v>766</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="85">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B12" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="85">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B13" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5">
+      <c r="A14" s="85">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B14" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="85">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B15" s="89" t="s">
+        <v>778</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="85">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>325</v>
+      <c r="B16" s="89" t="s">
+        <v>780</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{58EF47B4-B673-4CFD-AB05-4EBC3C5E888A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A2" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A4" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A12" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A15" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A21" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A23" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A26" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="27">
+      <c r="A27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="40.5">
+      <c r="A31" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
+        <v>645</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
@@ -3998,7 +5186,7 @@
       <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -4009,7 +5197,7 @@
     <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +5220,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A2" s="45" t="s">
         <v>62</v>
       </c>
@@ -4051,20 +5239,20 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
+      <c r="A3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="68" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -4074,12 +5262,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="79"/>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="49" t="s">
         <v>470</v>
       </c>
@@ -4087,12 +5275,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="79"/>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="49" t="s">
         <v>477</v>
       </c>
@@ -4100,12 +5288,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="80"/>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="49" t="s">
         <v>612</v>
       </c>
@@ -4113,7 +5301,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A7" s="7" t="s">
         <v>500</v>
       </c>
@@ -4134,17 +5322,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="71" t="s">
         <v>245</v>
       </c>
       <c r="E8" s="74" t="s">
@@ -4157,11 +5345,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="132">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="75"/>
       <c r="F9" s="49" t="s">
         <v>470</v>
@@ -4170,11 +5358,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+    <row r="10" spans="1:7" s="14" customFormat="1">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="75"/>
       <c r="F10" s="49" t="s">
         <v>478</v>
@@ -4183,11 +5371,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+    <row r="11" spans="1:7" s="14" customFormat="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="76"/>
       <c r="F11" s="49" t="s">
         <v>612</v>
@@ -4196,15 +5384,15 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A12" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71" t="s">
         <v>246</v>
       </c>
       <c r="E12" s="74" t="s">
@@ -4217,11 +5405,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
+    <row r="13" spans="1:7" s="14" customFormat="1">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="75"/>
       <c r="F13" s="49" t="s">
         <v>470</v>
@@ -4230,11 +5418,11 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
+    <row r="14" spans="1:7" s="14" customFormat="1">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="75"/>
       <c r="F14" s="49" t="s">
         <v>477</v>
@@ -4243,11 +5431,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
+    <row r="15" spans="1:7" s="14" customFormat="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="76"/>
       <c r="F15" s="49" t="s">
         <v>612</v>
@@ -4256,15 +5444,15 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>247</v>
       </c>
       <c r="E16" s="74" t="s">
@@ -4277,11 +5465,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+    <row r="17" spans="1:7" s="14" customFormat="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="75"/>
       <c r="F17" s="49" t="s">
         <v>470</v>
@@ -4290,11 +5478,11 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+    <row r="18" spans="1:7" s="14" customFormat="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="75"/>
       <c r="F18" s="49" t="s">
         <v>477</v>
@@ -4303,11 +5491,11 @@
         <v>670</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
+    <row r="19" spans="1:7" s="14" customFormat="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="76"/>
       <c r="F19" s="49" t="s">
         <v>612</v>
@@ -4316,15 +5504,15 @@
         <v>671</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
+      <c r="A20" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="71" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="74" t="s">
@@ -4337,11 +5525,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="75"/>
       <c r="F21" s="49" t="s">
         <v>477</v>
@@ -4350,11 +5538,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="76"/>
       <c r="F22" s="49" t="s">
         <v>612</v>
@@ -4363,7 +5551,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="27">
       <c r="A23" s="45" t="s">
         <v>53</v>
       </c>
@@ -4382,7 +5570,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="27">
       <c r="A24" s="9" t="s">
         <v>585</v>
       </c>
@@ -4403,7 +5591,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="67.5">
       <c r="A25" s="45" t="s">
         <v>54</v>
       </c>
@@ -4426,7 +5614,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="27">
       <c r="A26" s="9" t="s">
         <v>587</v>
       </c>
@@ -4447,18 +5635,18 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="72" t="s">
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A27" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="70" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="77" t="s">
         <v>367</v>
       </c>
       <c r="F27" s="53" t="s">
@@ -4468,12 +5656,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="69"/>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="132">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="49" t="s">
         <v>470</v>
       </c>
@@ -4481,7 +5669,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="40.5">
       <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
@@ -4500,7 +5688,7 @@
       <c r="F29" s="53"/>
       <c r="G29" s="48"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A30" s="9" t="s">
         <v>590</v>
       </c>
@@ -4521,7 +5709,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="405" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="405">
       <c r="A31" s="45" t="s">
         <v>243</v>
       </c>
@@ -4540,7 +5728,7 @@
       <c r="F31" s="53"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A32" s="9" t="s">
         <v>593</v>
       </c>
@@ -4561,7 +5749,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="14.25">
       <c r="A33" s="45" t="s">
         <v>57</v>
       </c>
@@ -4582,7 +5770,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="14.25">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -4603,20 +5791,20 @@
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="72" t="s">
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A35" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="77" t="s">
         <v>360</v>
       </c>
       <c r="F35" s="53" t="s">
@@ -4626,12 +5814,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="81"/>
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="14.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="49" t="s">
         <v>470</v>
       </c>
@@ -4639,12 +5827,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="69"/>
+    <row r="37" spans="1:7" s="14" customFormat="1" ht="13.5">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="53" t="s">
         <v>432</v>
       </c>
@@ -4652,7 +5840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A38" s="9" t="s">
         <v>555</v>
       </c>
@@ -4671,7 +5859,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A39" s="45" t="s">
         <v>41</v>
       </c>
@@ -4694,7 +5882,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A40" s="45" t="s">
         <v>94</v>
       </c>
@@ -4713,18 +5901,18 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:7" s="14" customFormat="1">
+      <c r="A41" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70" t="s">
+      <c r="C41" s="71"/>
+      <c r="D41" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="68" t="s">
         <v>371</v>
       </c>
       <c r="F41" s="49" t="s">
@@ -4734,12 +5922,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="132">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="49" t="s">
         <v>470</v>
       </c>
@@ -4747,12 +5935,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="79"/>
+    <row r="43" spans="1:7" s="14" customFormat="1">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="49" t="s">
         <v>478</v>
       </c>
@@ -4760,12 +5948,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="80"/>
+    <row r="44" spans="1:7" s="14" customFormat="1">
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="49" t="s">
         <v>612</v>
       </c>
@@ -4773,7 +5961,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A45" s="9" t="s">
         <v>596</v>
       </c>
@@ -4794,7 +5982,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A46" s="9" t="s">
         <v>711</v>
       </c>
@@ -4815,7 +6003,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A47" s="45" t="s">
         <v>60</v>
       </c>
@@ -4834,7 +6022,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A48" s="45" t="s">
         <v>97</v>
       </c>
@@ -4855,7 +6043,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="45" t="s">
         <v>61</v>
       </c>
@@ -4876,7 +6064,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="45" t="s">
         <v>415</v>
       </c>
@@ -4889,7 +6077,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="27">
       <c r="A51" s="9" t="s">
         <v>550</v>
       </c>
@@ -4908,7 +6096,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="9" t="s">
         <v>598</v>
       </c>
@@ -4927,7 +6115,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="9" t="s">
         <v>600</v>
       </c>
@@ -4944,7 +6132,7 @@
       <c r="F53" s="23"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="9" t="s">
         <v>537</v>
       </c>
@@ -4965,7 +6153,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
         <v>516</v>
       </c>
@@ -4986,7 +6174,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
         <v>518</v>
       </c>
@@ -5007,7 +6195,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
         <v>601</v>
       </c>
@@ -5028,7 +6216,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
         <v>643</v>
       </c>
@@ -5049,7 +6237,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="27">
       <c r="A59" s="9" t="s">
         <v>649</v>
       </c>
@@ -5070,7 +6258,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="27">
       <c r="A60" s="9" t="s">
         <v>650</v>
       </c>
@@ -5091,7 +6279,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="40.5">
       <c r="A61" s="9" t="s">
         <v>651</v>
       </c>
@@ -5112,7 +6300,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="27">
       <c r="A62" s="9" t="s">
         <v>652</v>
       </c>
@@ -5133,7 +6321,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
         <v>573</v>
       </c>
@@ -5154,7 +6342,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
         <v>604</v>
       </c>
@@ -5175,7 +6363,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="9" t="s">
         <v>606</v>
       </c>
@@ -5196,7 +6384,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="9" t="s">
         <v>608</v>
       </c>
@@ -5217,46 +6405,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="D41:D44"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5264,7 +6452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -5272,7 +6460,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -5283,7 +6471,7 @@
     <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5306,7 +6494,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A2" s="46" t="s">
         <v>63</v>
       </c>
@@ -5325,7 +6513,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="40.5">
       <c r="A3" s="46" t="s">
         <v>29</v>
       </c>
@@ -5348,7 +6536,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A4" s="7" t="s">
         <v>500</v>
       </c>
@@ -5369,7 +6557,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="40.5">
       <c r="A5" s="46" t="s">
         <v>64</v>
       </c>
@@ -5392,7 +6580,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="40.5">
       <c r="A6" s="46" t="s">
         <v>65</v>
       </c>
@@ -5413,7 +6601,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="40.5">
       <c r="A7" s="46" t="s">
         <v>66</v>
       </c>
@@ -5434,7 +6622,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A8" s="9" t="s">
         <v>657</v>
       </c>
@@ -5451,7 +6639,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A9" s="46" t="s">
         <v>67</v>
       </c>
@@ -5470,7 +6658,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A10" s="9" t="s">
         <v>619</v>
       </c>
@@ -5489,7 +6677,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A11" s="46" t="s">
         <v>68</v>
       </c>
@@ -5508,7 +6696,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A12" s="46" t="s">
         <v>69</v>
       </c>
@@ -5525,7 +6713,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="40.5">
       <c r="A13" s="46" t="s">
         <v>4</v>
       </c>
@@ -5548,7 +6736,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A14" s="9" t="s">
         <v>555</v>
       </c>
@@ -5567,7 +6755,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A15" s="46" t="s">
         <v>41</v>
       </c>
@@ -5590,7 +6778,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A16" s="46" t="s">
         <v>94</v>
       </c>
@@ -5609,7 +6797,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="40.5">
       <c r="A17" s="46" t="s">
         <v>70</v>
       </c>
@@ -5630,7 +6818,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A18" s="9" t="s">
         <v>622</v>
       </c>
@@ -5645,7 +6833,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A19" s="9" t="s">
         <v>711</v>
       </c>
@@ -5666,7 +6854,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A20" s="46" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +6873,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="46" t="s">
         <v>90</v>
       </c>
@@ -5702,7 +6890,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="46" t="s">
         <v>415</v>
       </c>
@@ -5715,7 +6903,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="40.5">
       <c r="A23" s="9" t="s">
         <v>550</v>
       </c>
@@ -5732,7 +6920,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="40.5">
       <c r="A24" s="9" t="s">
         <v>598</v>
       </c>
@@ -5749,7 +6937,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="27">
       <c r="A25" s="9" t="s">
         <v>600</v>
       </c>
@@ -5766,7 +6954,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
         <v>537</v>
       </c>
@@ -5787,7 +6975,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="40.5">
       <c r="A27" s="9" t="s">
         <v>516</v>
       </c>
@@ -5808,7 +6996,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
         <v>518</v>
       </c>
@@ -5829,7 +7017,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
         <v>559</v>
       </c>
@@ -5846,7 +7034,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="40.5">
       <c r="A30" s="9" t="s">
         <v>601</v>
       </c>
@@ -5867,7 +7055,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
         <v>624</v>
       </c>
@@ -5884,7 +7072,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="40.5">
       <c r="A32" s="9" t="s">
         <v>643</v>
       </c>
@@ -5905,7 +7093,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
         <v>649</v>
       </c>
@@ -5922,7 +7110,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
         <v>650</v>
       </c>
@@ -5943,7 +7131,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="9" t="s">
         <v>651</v>
       </c>
@@ -5964,7 +7152,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
         <v>652</v>
       </c>
@@ -5981,7 +7169,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="40.5">
       <c r="A37" s="9" t="s">
         <v>573</v>
       </c>
@@ -6002,7 +7190,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
         <v>608</v>
       </c>
@@ -6023,7 +7211,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
         <v>625</v>
       </c>
@@ -6044,7 +7232,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
         <v>626</v>
       </c>
@@ -6068,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51426D37-4EEA-4557-8434-861F4CAA60BA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -6076,7 +7264,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -6087,7 +7275,7 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6110,7 +7298,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="23" t="s">
         <v>714</v>
       </c>
@@ -6129,7 +7317,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
@@ -6152,7 +7340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="81">
       <c r="A4" s="23" t="s">
         <v>718</v>
       </c>
@@ -6173,7 +7361,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="81">
       <c r="A5" s="23" t="s">
         <v>722</v>
       </c>
@@ -6194,7 +7382,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="23" t="s">
         <v>725</v>
       </c>
@@ -6218,6 +7406,198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -6225,7 +7605,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -6236,7 +7616,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6259,7 +7639,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -6278,7 +7658,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -6299,7 +7679,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -6318,7 +7698,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="67.5">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -6341,7 +7721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -6362,7 +7742,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -6389,7 +7769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -6397,7 +7777,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -6408,7 +7788,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6431,7 +7811,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -6450,7 +7830,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -6469,7 +7849,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -6486,7 +7866,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -6503,7 +7883,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
@@ -6522,7 +7902,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>487</v>
       </c>
@@ -6543,7 +7923,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="27">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -6566,7 +7946,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>492</v>
       </c>
@@ -6587,7 +7967,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -6608,7 +7988,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -6627,7 +8007,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -6648,7 +8028,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -6669,7 +8049,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>495</v>
       </c>
@@ -6686,7 +8066,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -6705,7 +8085,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -6726,7 +8106,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -6752,7 +8132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -6760,7 +8140,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -6771,7 +8151,7 @@
     <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="20" t="s">
         <v>111</v>
       </c>
@@ -6794,7 +8174,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="7" t="s">
         <v>276</v>
       </c>
@@ -6817,7 +8197,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="7" t="s">
         <v>278</v>
       </c>
@@ -6840,7 +8220,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="7" t="s">
         <v>279</v>
       </c>
@@ -6861,7 +8241,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>280</v>
       </c>
@@ -6882,7 +8262,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>282</v>
       </c>
@@ -6903,7 +8283,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="27">
       <c r="A7" s="7" t="s">
         <v>284</v>
       </c>
@@ -6924,7 +8304,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="27">
       <c r="A8" s="7" t="s">
         <v>397</v>
       </c>
@@ -6945,7 +8325,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="27">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -6966,7 +8346,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="40.5">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -6985,7 +8365,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="81">
       <c r="A11" s="7" t="s">
         <v>287</v>
       </c>
@@ -7008,7 +8388,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>288</v>
       </c>
@@ -7027,7 +8407,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="7" t="s">
         <v>289</v>
       </c>
@@ -7046,7 +8426,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -7067,7 +8447,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>500</v>
       </c>
@@ -7088,7 +8468,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>291</v>
       </c>
@@ -7109,7 +8489,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>292</v>
       </c>
@@ -7128,7 +8508,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -7149,7 +8529,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>293</v>
       </c>
@@ -7168,7 +8548,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>294</v>
       </c>
@@ -7185,7 +8565,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>295</v>
       </c>
@@ -7204,7 +8584,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>503</v>
       </c>
@@ -7225,7 +8605,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>505</v>
       </c>
@@ -7253,7 +8633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C99354-3975-4F6A-8BC5-5217D0CC05C4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7261,7 +8641,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -7270,7 +8650,7 @@
     <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7287,7 +8667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="27">
       <c r="A2" s="9" t="s">
         <v>104</v>
       </c>
@@ -7304,7 +8684,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -7319,7 +8699,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -7334,7 +8714,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="54">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -7351,7 +8731,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -7368,7 +8748,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -7383,7 +8763,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -7407,7 +8787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -7415,7 +8795,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -7426,7 +8806,7 @@
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7449,7 +8829,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
         <v>424</v>
       </c>
@@ -7468,7 +8848,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
@@ -7481,7 +8861,7 @@
       <c r="D3" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="66" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -7491,12 +8871,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="1" t="s">
         <v>481</v>
       </c>
@@ -7504,7 +8884,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>500</v>
       </c>
@@ -7525,7 +8905,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="58" t="s">
         <v>39</v>
       </c>
@@ -7548,7 +8928,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -7561,7 +8941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="58" t="s">
         <v>30</v>
       </c>
@@ -7572,7 +8952,7 @@
       <c r="D8" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="62" t="s">
         <v>327</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -7582,12 +8962,12 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="67"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="1" t="s">
         <v>481</v>
       </c>
@@ -7595,7 +8975,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="58" t="s">
         <v>31</v>
       </c>
@@ -7616,7 +8996,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -7629,7 +9009,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
@@ -7650,7 +9030,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -7663,7 +9043,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="58" t="s">
         <v>33</v>
       </c>
@@ -7684,7 +9064,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -7697,7 +9077,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="27">
       <c r="A16" s="29" t="s">
         <v>34</v>
       </c>
@@ -7716,7 +9096,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.5" customHeight="1">
       <c r="A17" s="29" t="s">
         <v>513</v>
       </c>
@@ -7737,7 +9117,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="58" t="s">
         <v>4</v>
       </c>
@@ -7760,7 +9140,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -7773,7 +9153,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="58" t="s">
         <v>5</v>
       </c>
@@ -7792,11 +9172,11 @@
       <c r="F20" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="62" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -7805,9 +9185,9 @@
       <c r="F21" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G21" s="67"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="63"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="58" t="s">
         <v>36</v>
       </c>
@@ -7824,11 +9204,11 @@
       <c r="F22" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="62" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -7837,9 +9217,9 @@
       <c r="F23" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="63"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="58" t="s">
         <v>37</v>
       </c>
@@ -7858,11 +9238,11 @@
       <c r="F24" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="62" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -7871,9 +9251,9 @@
       <c r="F25" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G25" s="67"/>
-    </row>
-    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="67.5">
       <c r="A26" s="29" t="s">
         <v>93</v>
       </c>
@@ -7892,7 +9272,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="67.5">
       <c r="A27" s="29" t="s">
         <v>95</v>
       </c>
@@ -7913,7 +9293,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="94.5">
       <c r="A28" s="29" t="s">
         <v>35</v>
       </c>
@@ -7932,7 +9312,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="81">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
@@ -7953,7 +9333,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="29.25" customHeight="1">
       <c r="A30" s="29" t="s">
         <v>40</v>
       </c>
@@ -7974,7 +9354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="40.5">
       <c r="A31" s="29" t="s">
         <v>550</v>
       </c>
@@ -7995,7 +9375,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="27">
       <c r="A32" s="9" t="s">
         <v>516</v>
       </c>
@@ -8016,7 +9396,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
         <v>518</v>
       </c>
@@ -8037,10 +9417,47 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" ht="29.25" customHeight="1"/>
+    <row r="35" spans="1:7" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
@@ -8057,43 +9474,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8101,7 +9481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -8109,7 +9489,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -8120,7 +9500,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -8143,7 +9523,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A2" s="2" t="s">
         <v>526</v>
       </c>
@@ -8162,7 +9542,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -8185,7 +9565,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>500</v>
       </c>
@@ -8206,7 +9586,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -8225,7 +9605,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>402</v>
       </c>
@@ -8246,7 +9626,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>403</v>
       </c>
@@ -8267,7 +9647,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
@@ -8288,7 +9668,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>404</v>
       </c>
@@ -8309,7 +9689,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>191</v>
       </c>
@@ -8328,7 +9708,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>524</v>
       </c>
@@ -8349,7 +9729,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -8372,7 +9752,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -8395,7 +9775,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -8416,7 +9796,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -8435,7 +9815,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>405</v>
       </c>
@@ -8454,7 +9834,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>406</v>
       </c>
@@ -8471,7 +9851,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>407</v>
       </c>
@@ -8488,7 +9868,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>194</v>
       </c>
@@ -8507,7 +9887,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>195</v>
       </c>
@@ -8526,7 +9906,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>401</v>
       </c>
@@ -8543,7 +9923,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -8562,7 +9942,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>516</v>
       </c>
@@ -8579,7 +9959,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>518</v>
       </c>
@@ -8600,7 +9980,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>727</v>
       </c>
@@ -8621,7 +10001,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>729</v>
       </c>
@@ -8645,7 +10025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -8653,7 +10033,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -8664,7 +10044,7 @@
     <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -8687,7 +10067,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -8706,7 +10086,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -8729,7 +10109,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>500</v>
       </c>
@@ -8750,7 +10130,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -8773,7 +10153,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -8794,7 +10174,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>408</v>
       </c>
@@ -8815,7 +10195,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="27">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -8836,7 +10216,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="27">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -8857,7 +10237,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="27">
       <c r="A10" s="9" t="s">
         <v>409</v>
       </c>
@@ -8876,7 +10256,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="27">
       <c r="A11" s="9" t="s">
         <v>527</v>
       </c>
@@ -8897,7 +10277,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="27">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -8916,7 +10296,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -8933,7 +10313,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -8956,7 +10336,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
         <v>530</v>
       </c>
@@ -8977,7 +10357,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -9000,7 +10380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
@@ -9019,7 +10399,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
         <v>410</v>
       </c>
@@ -9040,7 +10420,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
         <v>534</v>
       </c>
@@ -9061,7 +10441,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -9080,7 +10460,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
         <v>411</v>
       </c>
@@ -9097,7 +10477,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="40.5">
       <c r="A22" s="9" t="s">
         <v>550</v>
       </c>
@@ -9118,7 +10498,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
         <v>537</v>
       </c>
@@ -9139,7 +10519,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
         <v>516</v>
       </c>
@@ -9160,7 +10540,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>518</v>
       </c>
@@ -9181,7 +10561,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
         <v>542</v>
       </c>
@@ -9199,935 +10579,6 @@
       <c r="G26" s="38" t="s">
         <v>546</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.25" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>702</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/KNUH/감염병 CDM ETL정의서_경북대.xlsx
+++ b/KNUH/감염병 CDM ETL정의서_경북대.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\KNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EAF36A-DE7D-4906-802F-0A29D026496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C071C4-3803-46B4-A477-22F7D2A32BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26100" yWindow="870" windowWidth="23970" windowHeight="17640" tabRatio="855" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의" sheetId="18" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="784">
   <si>
     <t>필드명</t>
   </si>
@@ -1765,10 +1765,6 @@
     <t>INPTRSLT</t>
   </si>
   <si>
-    <t>LASTREPTDT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경북대병원
 사용 원천 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2438,10 +2434,6 @@
     <t>CRETNO</t>
   </si>
   <si>
-    <t>TCLSCD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LLRHSPDO</t>
   </si>
   <si>
@@ -2642,29 +2634,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SPCACPTDT(검체접수일시)
-SPCACPTDD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LASTREPTDT
-RSLTREGDD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-LPRMRSLT
-LPJMACPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MMODEXIP
 LPJMACPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECDD + EXECTM
-ACPTDD + ACPTTM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3106,12 +3077,50 @@
     <t>drug_exposure테이블을 통해 파생되는 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>LLRHSPDO
+MMOHOIPRC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPCACPTDT(검체접수일시(검사시작 시점))
+PRCPDD(처방적용일자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLSCD(검사분류코드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDNM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPCACPTDT(검체접수일시)
+ACPTDD + ACPTTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECDD + EXECTM
+GROSTESTRECDD + GROSTESTRECTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASTREPTDT
+RSLTREGDD + RSLTRGSTTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LPJMACPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3617,81 +3626,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3712,6 +3646,81 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4016,11 +4025,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C734C3E-EB61-4C16-9E65-0958CC4869D8}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
@@ -4028,216 +4037,216 @@
     <col min="4" max="4" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="60">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="C3" s="62" t="s">
         <v>742</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="C4" s="62" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="85">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="60">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="C5" s="62" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="85">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>747</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>748</v>
-      </c>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="85">
-        <v>3</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>749</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>750</v>
-      </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="85">
-        <v>4</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>752</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="85">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="62" t="s">
+        <v>748</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="60">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="60">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>754</v>
       </c>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="85">
-        <v>6</v>
-      </c>
-      <c r="B7" s="38" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="60">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>755</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C9" s="62" t="s">
         <v>756</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="85">
-        <v>7</v>
-      </c>
-      <c r="B8" s="38" t="s">
+      <c r="C10" s="62" t="s">
         <v>758</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="D10" s="38" t="s">
         <v>759</v>
       </c>
-      <c r="D8" s="38" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="85">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38" t="s">
+      <c r="C11" s="62" t="s">
         <v>761</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="D11" s="38" t="s">
         <v>762</v>
       </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="85">
-        <v>9</v>
-      </c>
-      <c r="B10" s="38" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="60">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>763</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C12" s="62" t="s">
         <v>764</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="85">
-        <v>10</v>
-      </c>
-      <c r="B11" s="38" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="60">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C13" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D13" s="38" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="85">
-        <v>11</v>
-      </c>
-      <c r="B12" s="38" t="s">
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="60">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C14" s="62" t="s">
         <v>770</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D14" s="63" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="85">
-        <v>12</v>
-      </c>
-      <c r="B13" s="38" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="60">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
         <v>772</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>773</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="49.5">
-      <c r="A14" s="85">
-        <v>13</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>776</v>
-      </c>
-      <c r="D14" s="88" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="85">
-        <v>14</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>778</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="85">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="60">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>780</v>
+      <c r="B16" s="64" t="s">
+        <v>774</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -4257,7 +4266,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -4268,7 +4277,7 @@
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4285,15 +4294,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>106</v>
@@ -4310,7 +4319,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -4333,28 +4342,28 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="27">
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -4368,7 +4377,7 @@
         <v>221</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>432</v>
@@ -4377,7 +4386,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>412</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
@@ -4437,10 +4446,10 @@
         <v>432</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="27">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
@@ -4458,10 +4467,10 @@
         <v>432</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="13.5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -4473,12 +4482,12 @@
         <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>77</v>
       </c>
@@ -4492,33 +4501,33 @@
         <v>272</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F12" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="13.5">
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -4530,12 +4539,12 @@
         <v>228</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>79</v>
       </c>
@@ -4547,12 +4556,12 @@
         <v>229</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>413</v>
       </c>
@@ -4573,7 +4582,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>414</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -4606,12 +4615,12 @@
         <v>232</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -4625,12 +4634,12 @@
         <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -4642,12 +4651,12 @@
         <v>234</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -4670,28 +4679,28 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="13.5">
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>94</v>
       </c>
@@ -4728,12 +4737,12 @@
         <v>238</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -4751,48 +4760,48 @@
         <v>432</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="13.5">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>557</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>558</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F26" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="27">
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>84</v>
       </c>
@@ -4806,12 +4815,12 @@
         <v>239</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -4823,16 +4832,16 @@
         <v>240</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>88</v>
       </c>
@@ -4850,10 +4859,10 @@
         <v>432</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>415</v>
       </c>
@@ -4861,312 +4870,312 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="F32" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="B38" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="B39" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="7" t="s">
-        <v>569</v>
-      </c>
       <c r="B40" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="7" t="s">
-        <v>579</v>
-      </c>
       <c r="B44" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="2"/>
@@ -5182,11 +5191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -5194,10 +5203,10 @@
     <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5214,13 +5223,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>62</v>
       </c>
@@ -5239,20 +5248,20 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="85" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -5262,80 +5271,80 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="69"/>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="69"/>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="70"/>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="F7" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>511</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
-      <c r="A8" s="71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="81" t="s">
         <v>365</v>
       </c>
       <c r="F8" s="49" t="s">
@@ -5345,213 +5354,213 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="132">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="76"/>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A12" s="71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="74" t="s">
-        <v>661</v>
+      <c r="E12" s="81" t="s">
+        <v>659</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>439</v>
+        <v>776</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="75"/>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="75"/>
+    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="76"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A16" s="71" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>661</v>
+      <c r="E16" s="81" t="s">
+        <v>659</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>439</v>
+        <v>776</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G17" s="50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="75"/>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="76"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
-      <c r="A20" s="71" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71" t="s">
+      <c r="C20" s="77"/>
+      <c r="D20" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="74" t="s">
-        <v>662</v>
+      <c r="E20" s="81" t="s">
+        <v>660</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="75"/>
+        <v>776</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="76"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="27">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>53</v>
       </c>
@@ -5570,28 +5579,28 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="27">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F24" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="67.5">
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>54</v>
       </c>
@@ -5611,65 +5620,65 @@
         <v>439</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="27">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="F26" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="13.5">
-      <c r="A27" s="80" t="s">
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="71" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="75" t="s">
         <v>367</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>439</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="132">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="79"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="G28" s="50" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="40.5">
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
@@ -5688,28 +5697,28 @@
       <c r="F29" s="53"/>
       <c r="G29" s="48"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>592</v>
-      </c>
       <c r="F30" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="405">
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="405" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>243</v>
       </c>
@@ -5728,28 +5737,28 @@
       <c r="F31" s="53"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>594</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="14.25">
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>57</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="14.25">
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -5791,20 +5800,20 @@
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="13.5">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="75" t="s">
         <v>360</v>
       </c>
       <c r="F35" s="53" t="s">
@@ -5814,25 +5823,25 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" ht="14.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="78"/>
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="88"/>
       <c r="F36" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G36" s="53" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="13.5">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="79"/>
+    <row r="37" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="53" t="s">
         <v>432</v>
       </c>
@@ -5840,26 +5849,26 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" ht="13.5">
+    </row>
+    <row r="39" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>41</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>94</v>
       </c>
@@ -5901,18 +5910,18 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7" s="14" customFormat="1">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="85" t="s">
         <v>371</v>
       </c>
       <c r="F41" s="49" t="s">
@@ -5922,88 +5931,88 @@
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" ht="132">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="69"/>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="86"/>
       <c r="F42" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="G42" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="G42" s="50" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="69"/>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="70"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="13.5">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="13.5">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="13.5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>60</v>
       </c>
@@ -6022,7 +6031,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>97</v>
       </c>
@@ -6037,13 +6046,13 @@
         <v>372</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>61</v>
       </c>
@@ -6064,7 +6073,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>415</v>
       </c>
@@ -6077,374 +6086,382 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27">
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="49" t="s">
         <v>439</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>599</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="F52" s="23"/>
+        <v>597</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>439</v>
+      </c>
       <c r="G52" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7">
+        <v>599</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="F54" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E56" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="G56" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="F56" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="54" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="27">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="27">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="40.5">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>651</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="27">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="54" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G64" s="48" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>609</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="F66" s="23"/>
+        <v>607</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>616</v>
+      </c>
       <c r="G66" s="48" t="s">
         <v>444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6460,7 +6477,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -6471,7 +6488,7 @@
     <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6488,13 +6505,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5">
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>63</v>
       </c>
@@ -6513,7 +6530,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="40.5">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>29</v>
       </c>
@@ -6530,34 +6547,34 @@
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="40.5">
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>64</v>
       </c>
@@ -6574,13 +6591,13 @@
         <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="40.5">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>65</v>
       </c>
@@ -6595,13 +6612,13 @@
         <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="40.5">
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>66</v>
       </c>
@@ -6616,30 +6633,30 @@
         <v>375</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="27">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>67</v>
       </c>
@@ -6658,26 +6675,26 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5">
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>68</v>
       </c>
@@ -6696,7 +6713,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>69</v>
       </c>
@@ -6713,7 +6730,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="40.5">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>4</v>
       </c>
@@ -6730,32 +6747,32 @@
         <v>417</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5">
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>41</v>
       </c>
@@ -6772,13 +6789,13 @@
         <v>378</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>94</v>
       </c>
@@ -6797,7 +6814,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="40.5">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>70</v>
       </c>
@@ -6812,49 +6829,49 @@
         <v>379</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>71</v>
       </c>
@@ -6873,7 +6890,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>90</v>
       </c>
@@ -6890,7 +6907,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>415</v>
       </c>
@@ -6903,348 +6920,348 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5">
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="49"/>
       <c r="G23" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="40.5">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>599</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="27">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="F26" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="40.5">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F28" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="G28" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="G28" s="48" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="40.5">
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>601</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5">
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G32" s="48" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>651</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>432</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" spans="1:7" ht="40.5">
+    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>609</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G38" s="53" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>609</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="48"/>
@@ -7264,7 +7281,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -7275,7 +7292,7 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7292,15 +7309,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27">
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>106</v>
@@ -7309,15 +7326,15 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
@@ -7328,73 +7345,73 @@
         <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81">
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="81">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -7413,7 +7430,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -7422,7 +7439,7 @@
     <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7439,7 +7456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -7456,7 +7473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -7471,7 +7488,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -7486,7 +7503,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -7501,7 +7518,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -7516,7 +7533,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -7531,7 +7548,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -7546,7 +7563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -7561,7 +7578,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -7576,7 +7593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>164</v>
       </c>
@@ -7605,7 +7622,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -7616,7 +7633,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7633,13 +7650,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -7658,7 +7675,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -7673,13 +7690,13 @@
         <v>310</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -7698,7 +7715,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="67.5">
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -7721,7 +7738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -7736,13 +7753,13 @@
         <v>312</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -7757,10 +7774,10 @@
         <v>313</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +7794,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -7788,7 +7805,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7805,13 +7822,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -7830,7 +7847,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -7843,13 +7860,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -7861,12 +7878,12 @@
         <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -7878,12 +7895,12 @@
         <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
@@ -7902,28 +7919,28 @@
       <c r="F6" s="23"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27">
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -7940,34 +7957,34 @@
         <v>314</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="F9" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -7979,16 +7996,16 @@
         <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -8007,7 +8024,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -8022,13 +8039,13 @@
         <v>316</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -8043,30 +8060,30 @@
         <v>317</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -8085,7 +8102,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -8097,16 +8114,16 @@
         <v>146</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F16" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +8157,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -8151,7 +8168,7 @@
     <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>111</v>
       </c>
@@ -8168,13 +8185,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27">
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>276</v>
       </c>
@@ -8191,13 +8208,13 @@
         <v>380</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>278</v>
       </c>
@@ -8214,13 +8231,13 @@
         <v>296</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>279</v>
       </c>
@@ -8235,13 +8252,13 @@
         <v>297</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>280</v>
       </c>
@@ -8256,13 +8273,13 @@
         <v>298</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>282</v>
       </c>
@@ -8277,13 +8294,13 @@
         <v>299</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>284</v>
       </c>
@@ -8298,13 +8315,13 @@
         <v>152</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>397</v>
       </c>
@@ -8316,16 +8333,16 @@
         <v>398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -8337,16 +8354,16 @@
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>286</v>
       </c>
@@ -8360,12 +8377,12 @@
         <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="81">
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>287</v>
       </c>
@@ -8376,19 +8393,19 @@
         <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>288</v>
       </c>
@@ -8399,15 +8416,15 @@
         <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>289</v>
       </c>
@@ -8421,12 +8438,12 @@
         <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>290</v>
       </c>
@@ -8435,40 +8452,40 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="F15" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>291</v>
       </c>
@@ -8477,19 +8494,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>303</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>292</v>
       </c>
@@ -8500,7 +8517,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>301</v>
@@ -8508,7 +8525,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -8517,19 +8534,19 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>293</v>
       </c>
@@ -8540,15 +8557,15 @@
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>294</v>
       </c>
@@ -8557,15 +8574,15 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>295</v>
       </c>
@@ -8576,54 +8593,54 @@
         <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F22" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -8641,7 +8658,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -8650,7 +8667,7 @@
     <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8667,7 +8684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>104</v>
       </c>
@@ -8684,7 +8701,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -8699,7 +8716,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -8714,7 +8731,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54">
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -8731,7 +8748,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -8748,7 +8765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -8763,7 +8780,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -8795,7 +8812,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -8806,7 +8823,7 @@
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -8823,13 +8840,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>424</v>
       </c>
@@ -8848,236 +8865,236 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="69" t="s">
         <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="67"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="58" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="67" t="s">
         <v>326</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="73" t="s">
         <v>327</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="63"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="58" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="71" t="s">
         <v>328</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="65"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="67" t="s">
         <v>329</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="61"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="58" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="67" t="s">
         <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="61"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>34</v>
       </c>
@@ -9096,164 +9113,164 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1">
+    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>515</v>
-      </c>
       <c r="F17" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="58" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="67" t="s">
         <v>332</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="G19" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G22" s="73" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="58" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G23" s="74"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C24" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="D24" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G20" s="62" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="67.5">
+      <c r="G25" s="74"/>
+    </row>
+    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>93</v>
       </c>
@@ -9272,7 +9289,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="67.5">
+    <row r="27" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>95</v>
       </c>
@@ -9293,7 +9310,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="94.5">
+    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>35</v>
       </c>
@@ -9312,7 +9329,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="81">
+    <row r="29" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
@@ -9333,7 +9350,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="29.25" customHeight="1">
+    <row r="30" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>40</v>
       </c>
@@ -9354,110 +9371,73 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="29.25" customHeight="1"/>
-    <row r="35" spans="1:7" ht="29.25" customHeight="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
@@ -9474,6 +9454,43 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9489,7 +9506,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -9500,7 +9517,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -9517,15 +9534,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>106</v>
@@ -9542,7 +9559,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9559,34 +9576,34 @@
         <v>336</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -9605,7 +9622,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>402</v>
       </c>
@@ -9620,13 +9637,13 @@
         <v>337</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>403</v>
       </c>
@@ -9641,13 +9658,13 @@
         <v>338</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
@@ -9662,13 +9679,13 @@
         <v>339</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>404</v>
       </c>
@@ -9683,13 +9700,13 @@
         <v>340</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>191</v>
       </c>
@@ -9703,33 +9720,33 @@
         <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -9746,13 +9763,13 @@
         <v>341</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9769,13 +9786,13 @@
         <v>342</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -9790,13 +9807,13 @@
         <v>343</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -9810,12 +9827,12 @@
         <v>177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>405</v>
       </c>
@@ -9829,12 +9846,12 @@
         <v>179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>406</v>
       </c>
@@ -9846,12 +9863,12 @@
         <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>407</v>
       </c>
@@ -9863,12 +9880,12 @@
         <v>182</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>194</v>
       </c>
@@ -9882,12 +9899,12 @@
         <v>184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>195</v>
       </c>
@@ -9906,7 +9923,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>401</v>
       </c>
@@ -9918,12 +9935,12 @@
         <v>199</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -9942,78 +9959,78 @@
       <c r="F22" s="23"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>733</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -10033,7 +10050,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -10044,7 +10061,7 @@
     <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -10061,13 +10078,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -10086,7 +10103,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -10109,28 +10126,28 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -10153,7 +10170,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -10174,7 +10191,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>408</v>
       </c>
@@ -10195,7 +10212,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -10210,13 +10227,13 @@
         <v>348</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -10231,13 +10248,13 @@
         <v>388</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>409</v>
       </c>
@@ -10256,28 +10273,28 @@
       <c r="F10" s="23"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>529</v>
-      </c>
       <c r="F11" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27">
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -10296,7 +10313,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -10313,7 +10330,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -10336,28 +10353,28 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -10374,13 +10391,13 @@
         <v>352</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
@@ -10399,7 +10416,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>410</v>
       </c>
@@ -10420,28 +10437,28 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>536</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -10460,7 +10477,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>411</v>
       </c>
@@ -10477,107 +10494,107 @@
       <c r="F21" s="23"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="40.5">
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>538</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>539</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E24" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>545</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>
